--- a/Datasett/Nye datasett/Kirker.xlsx
+++ b/Datasett/Nye datasett/Kirker.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marte\Documents\uib\6. semester\INFO216 Advanced Modelling\Project_Y\Datasett\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marte\Documents\uib\6. semester\INFO216 Advanced Modelling\Project_Y\Datasett\Nye datasett\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1003,7 +1003,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1173,7 +1173,7 @@
         <v>45</v>
       </c>
       <c r="G6">
-        <v>2270</v>
+        <v>490</v>
       </c>
       <c r="H6">
         <v>4335</v>

--- a/Datasett/Nye datasett/Kirker.xlsx
+++ b/Datasett/Nye datasett/Kirker.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marte\Documents\uib\6. semester\INFO216 Advanced Modelling\Project_Y\Datasett\Nye datasett\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malin\Documents\Project_Y\Datasett\Nye datasett\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783B8903-AE4D-474D-807F-468BEDA7F5F6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kirker-i-gjesdal-kommune" sheetId="1" r:id="rId1"/>
@@ -66,9 +67,6 @@
     <t>58.76914125</t>
   </si>
   <si>
-    <t xml:space="preserve">Ålgård gamle kirke </t>
-  </si>
-  <si>
     <t>6518859.87</t>
   </si>
   <si>
@@ -96,9 +94,6 @@
     <t>58.82559308</t>
   </si>
   <si>
-    <t xml:space="preserve">Oltedal kyrkje </t>
-  </si>
-  <si>
     <t>6524221.70</t>
   </si>
   <si>
@@ -111,9 +106,6 @@
     <t>58.82725728</t>
   </si>
   <si>
-    <t xml:space="preserve">Dirdal kyrkje </t>
-  </si>
-  <si>
     <t>6518007.70</t>
   </si>
   <si>
@@ -126,9 +118,6 @@
     <t>58.76355820</t>
   </si>
   <si>
-    <t xml:space="preserve">Ålgård Baptistkirke </t>
-  </si>
-  <si>
     <t>Postnummer</t>
   </si>
   <si>
@@ -160,12 +149,24 @@
   </si>
   <si>
     <t>Emmausveien</t>
+  </si>
+  <si>
+    <t>Ålgård gamle kirke</t>
+  </si>
+  <si>
+    <t>Oltedal kyrkje</t>
+  </si>
+  <si>
+    <t>Dirdal kyrkje</t>
+  </si>
+  <si>
+    <t>Ålgård Baptistkirke</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -999,16 +1000,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1028,16 +1029,16 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1054,7 +1055,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G2">
         <v>21</v>
@@ -1063,10 +1064,10 @@
         <v>4330</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1080,10 +1081,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G3">
         <v>36</v>
@@ -1092,27 +1093,27 @@
         <v>4330</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G4">
         <v>400</v>
@@ -1121,27 +1122,27 @@
         <v>4330</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G5">
         <v>30</v>
@@ -1150,27 +1151,27 @@
         <v>4333</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G6">
         <v>490</v>
@@ -1179,27 +1180,27 @@
         <v>4335</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1208,7 +1209,7 @@
         <v>4330</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
